--- a/Users.xlsx
+++ b/Users.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
-    <t>21</t>
+    <t>adadqeqeq</t>
   </si>
   <si>
-    <t>3131</t>
+    <t>asdad</t>
   </si>
 </sst>
 </file>
@@ -70,7 +70,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -81,7 +81,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
